--- a/Bloomberg data_Source 2.xlsx
+++ b/Bloomberg data_Source 2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365dsc-my.sharepoint.com/personal/team_365dsc_onmicrosoft_com/Documents/Courses/365 Financial Analyst/_Projects/Advanced Excel/Course project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snoorsalihi/Desktop/DataScience/Bloomberg-P-L-Analysis-and-Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{5F8382FF-B229-4707-8EA5-142D71EA57DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F4A79E-6C1E-4F44-9D94-A70419542338}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32149D18-733A-A244-9020-8818BE386221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="16170" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
+    <workbookView xWindow="13540" yWindow="500" windowWidth="24140" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
   </bookViews>
   <sheets>
     <sheet name="IS source" sheetId="1" r:id="rId1"/>
+    <sheet name="P&amp;L Statement" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IS source'!$A$9:$J$80</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="144">
   <si>
     <t>Ticker</t>
   </si>
@@ -453,6 +454,24 @@
   </si>
   <si>
     <t>FY 2016</t>
+  </si>
+  <si>
+    <t>Wholesale</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Other Business</t>
+  </si>
+  <si>
+    <t>Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>EBIT</t>
   </si>
 </sst>
 </file>
@@ -462,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,16 +500,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -498,12 +531,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -511,6 +564,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,19 +886,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD42F68-042B-4357-ABDB-631263EB20BD}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -856,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -897,7 +957,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -929,7 +989,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -958,7 +1018,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -984,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1076,7 @@
         <v>12669.4205</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1108,7 @@
         <v>12669.42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1137,7 @@
         <v>5157.47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1157,7 @@
         <v>2657.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1177,7 @@
         <v>1789.06</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1131,7 +1191,7 @@
         <v>5946.49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1205,7 @@
         <v>1565.46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1213,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1245,7 @@
         <v>12669.42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1214,7 +1274,7 @@
         <v>5229.09</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1291,7 @@
         <v>3823.3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1308,7 @@
         <v>565.14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1325,7 @@
         <v>311.75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1354,7 @@
         <v>4063.16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1371,7 @@
         <v>2134.52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1328,7 +1388,7 @@
         <v>975.06</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1345,7 +1405,7 @@
         <v>611.57000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1374,7 +1434,7 @@
         <v>2537.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1451,7 @@
         <v>1684.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1408,7 +1468,7 @@
         <v>493.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1485,7 @@
         <v>437.78</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1445,7 +1505,7 @@
         <v>1564.56</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1522,7 @@
         <v>1122.32</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1479,7 +1539,7 @@
         <v>667.29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1556,7 @@
         <v>46.43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1516,7 +1576,7 @@
         <v>1348.42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1533,7 +1593,7 @@
         <v>1114.3599999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1550,7 +1610,7 @@
         <v>173.79</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1567,7 +1627,7 @@
         <v>38.47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1656,7 @@
         <v>626.94000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -1613,7 +1673,7 @@
         <v>1428.76</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1630,7 +1690,7 @@
         <v>258.69</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -1647,7 +1707,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -1664,7 +1724,7 @@
         <v>212.33</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1696,7 +1756,7 @@
         <v>7008.1343999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1728,7 +1788,7 @@
         <v>5661.2861000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1760,7 +1820,7 @@
         <v>5648.72</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1780,7 +1840,7 @@
         <v>4156.82</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +1860,7 @@
         <v>1556.19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1880,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
@@ -1840,7 +1900,7 @@
         <v>174.3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -1854,7 +1914,7 @@
         <v>246.25</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1928,7 @@
         <v>472.4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,7 +1942,7 @@
         <v>1086.78</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
@@ -1896,7 +1956,7 @@
         <v>3843.29</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
@@ -1928,7 +1988,7 @@
         <v>113.075</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,7 +2020,7 @@
         <v>4653.6625999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
@@ -1992,7 +2052,7 @@
         <v>1120.6984</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -2024,7 +2084,7 @@
         <v>1108.1300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2104,7 @@
         <v>3271.35</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2124,7 @@
         <v>372.32</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -2084,7 +2144,7 @@
         <v>391.84</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -2113,7 +2173,7 @@
         <v>-81.67</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
@@ -2142,7 +2202,7 @@
         <v>108.05</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
@@ -2162,7 +2222,7 @@
         <v>-1433.48</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -2182,7 +2242,7 @@
         <v>-2070.7399999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>44</v>
       </c>
@@ -2196,7 +2256,7 @@
         <v>91.72</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -2210,7 +2270,7 @@
         <v>990.03</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
@@ -2242,7 +2302,7 @@
         <v>231.1755</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>58</v>
       </c>
@@ -2274,7 +2334,7 @@
         <v>-2.5127999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>60</v>
       </c>
@@ -2306,7 +2366,7 @@
         <v>-16.332999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,7 +2398,7 @@
         <v>908.36879999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
@@ -2370,7 +2430,7 @@
         <v>285.2002</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2402,7 +2462,7 @@
         <v>623.16859999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
@@ -2434,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>70</v>
       </c>
@@ -2466,7 +2526,7 @@
         <v>16.332999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
@@ -2498,7 +2558,7 @@
         <v>606.8356</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>74</v>
       </c>
@@ -2530,7 +2590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>77</v>
       </c>
@@ -2562,7 +2622,7 @@
         <v>606.8356</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -2594,7 +2654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2626,7 +2686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2658,7 +2718,7 @@
         <v>606.8356</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -2690,7 +2750,7 @@
         <v>2.9775999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -2722,7 +2782,7 @@
         <v>2.9775999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2814,7 @@
         <v>2.9775999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>91</v>
       </c>
@@ -2786,7 +2846,7 @@
         <v>203.3861</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
@@ -2818,7 +2878,7 @@
         <v>2.8269000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2910,7 @@
         <v>2.8269000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2882,7 +2942,7 @@
         <v>2.8269000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>99</v>
       </c>
@@ -2914,12 +2974,12 @@
         <v>219.39949999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>102</v>
       </c>
@@ -2951,7 +3011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -2983,7 +3043,7 @@
         <v>1393.3347000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -3015,7 +3075,7 @@
         <v>10.9976</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -3047,7 +3107,7 @@
         <v>44.684600000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -3055,7 +3115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
@@ -3075,7 +3135,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>22</v>
       </c>
@@ -3095,7 +3155,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
@@ -3115,7 +3175,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>110</v>
       </c>
@@ -3147,7 +3207,7 @@
         <v>8.8457000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -3155,7 +3215,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3235,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>24</v>
       </c>
@@ -3195,7 +3255,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>23</v>
       </c>
@@ -3215,7 +3275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -3247,7 +3307,7 @@
         <v>4.7897999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -3279,7 +3339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
@@ -3311,7 +3371,7 @@
         <v>0.52769999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>118</v>
       </c>
@@ -3343,7 +3403,7 @@
         <v>107.4212</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -3375,7 +3435,7 @@
         <v>46.486400000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
@@ -3407,7 +3467,7 @@
         <v>123.12609999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
@@ -3439,7 +3499,7 @@
         <v>1365.6941999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -3471,7 +3531,7 @@
         <v>162.07409999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>128</v>
       </c>
@@ -3504,7 +3564,103 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J80" xr:uid="{5FD42F68-042B-4357-ABDB-631263EB20BD}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A95765-7F90-D743-A132-631D0555C81E}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bloomberg data_Source 2.xlsx
+++ b/Bloomberg data_Source 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snoorsalihi/Desktop/DataScience/Bloomberg-P-L-Analysis-and-Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32149D18-733A-A244-9020-8818BE386221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFCADA-A63B-CC44-B6E6-8DDBBAC604B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="500" windowWidth="24140" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
+    <workbookView xWindow="9460" yWindow="500" windowWidth="14680" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
   </bookViews>
   <sheets>
     <sheet name="IS source" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
   <si>
     <t>Ticker</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>EBIT</t>
+  </si>
+  <si>
+    <t>Adidas P&amp;L</t>
+  </si>
+  <si>
+    <t>$ in million</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +509,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -556,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -564,11 +578,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3570,10 +3586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A95765-7F90-D743-A132-631D0555C81E}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3583,61 +3599,54 @@
     <col min="3" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G4" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -3647,18 +3656,33 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bloomberg data_Source 2.xlsx
+++ b/Bloomberg data_Source 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snoorsalihi/Desktop/DataScience/Bloomberg-P-L-Analysis-and-Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CFCADA-A63B-CC44-B6E6-8DDBBAC604B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DB60A-8681-BF48-881F-FAE3AADAAEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="500" windowWidth="14680" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
+    <workbookView xWindow="7540" yWindow="520" windowWidth="26480" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
   </bookViews>
   <sheets>
     <sheet name="IS source" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="152">
   <si>
     <t>Ticker</t>
   </si>
@@ -478,16 +478,35 @@
   </si>
   <si>
     <t>$ in million</t>
+  </si>
+  <si>
+    <t>abbreviation commonly used as a shortcut to identify public companies in various financial databases</t>
+  </si>
+  <si>
+    <t>Company Full Name</t>
+  </si>
+  <si>
+    <t>A' indicates that the data consists of actual figures rather than estimates or projections.</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>EBIT %</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="#,###;\(#,###\);\-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,8 +541,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000C1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,8 +561,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -565,12 +602,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -579,12 +625,20 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD42F68-042B-4357-ABDB-631263EB20BD}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -916,39 +970,73 @@
     <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,7 +1052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -973,8 +1061,8 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1005,7 +1093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1122,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1060,8 +1148,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1092,7 +1180,7 @@
         <v>12669.4205</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1124,7 +1212,7 @@
         <v>12669.42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1241,7 @@
         <v>5157.47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1261,7 @@
         <v>2657.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,7 +1829,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1773,7 +1861,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2005,7 +2093,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2037,7 +2125,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3580,109 +3668,325 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:M3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A95765-7F90-D743-A132-631D0555C81E}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>10003.700000000001</v>
+      </c>
+      <c r="E5" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>10853.04</v>
+      </c>
+      <c r="F5" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>12462.05</v>
+      </c>
+      <c r="G5" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>12259.54</v>
+      </c>
+      <c r="H5" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>12087.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>2657.8</v>
+      </c>
+      <c r="E6" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>3169.28</v>
+      </c>
+      <c r="F6" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>3890.39</v>
+      </c>
+      <c r="G6" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>4337.26</v>
+      </c>
+      <c r="H6" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>4577.37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>1789.06</v>
+      </c>
+      <c r="E7" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>1883.79</v>
+      </c>
+      <c r="F7" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>2197.2199999999998</v>
+      </c>
+      <c r="G7" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>2540.89</v>
+      </c>
+      <c r="H7" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>2584.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>25.1</v>
+      </c>
+      <c r="E8" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17">
+        <f>SUM(D5:D7)</f>
+        <v>14450.56</v>
+      </c>
+      <c r="E9" s="17">
+        <f>SUM(E5:E7)</f>
+        <v>15906.11</v>
+      </c>
+      <c r="F9" s="17">
+        <f>SUM(F5:F7)</f>
+        <v>18549.66</v>
+      </c>
+      <c r="G9" s="17">
+        <f>SUM(G5:G7)</f>
+        <v>19137.690000000002</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(H5:H7)</f>
+        <v>19249.93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>-7882.7606999999998</v>
+      </c>
+      <c r="E10" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>-8291.3433999999997</v>
+      </c>
+      <c r="F10" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>-9737.1097000000009</v>
+      </c>
+      <c r="G10" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>-9663.3541999999998</v>
+      </c>
+      <c r="H10" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>-9696.6934999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="17">
+        <f>SUM(D9:D10)</f>
+        <v>6567.7992999999997</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" ref="E11:H11" si="0">SUM(E9:E10)</f>
+        <v>7614.7666000000008</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>8812.550299999999</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>9474.3358000000026</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>9553.2365000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>-6121.5848999999998</v>
+      </c>
+      <c r="E12" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>-6694.0990000000002</v>
+      </c>
+      <c r="F12" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>-7751.5357999999997</v>
+      </c>
+      <c r="G12" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>-8248.8911000000007</v>
+      </c>
+      <c r="H12" s="18">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>-8215.6232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="19">
+        <f>SUM(D11:D12)</f>
+        <v>446.21439999999984</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" ref="E13:H13" si="1">SUM(E11:E12)</f>
+        <v>920.66760000000068</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>1061.0144999999993</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>1225.4447000000018</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="1"/>
+        <v>1337.6133000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="7">
+        <f>D13/D9</f>
+        <v>3.0878692590460152E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bloomberg data_Source 2.xlsx
+++ b/Bloomberg data_Source 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snoorsalihi/Desktop/DataScience/Bloomberg-P-L-Analysis-and-Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DB60A-8681-BF48-881F-FAE3AADAAEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5370DFA-CBAB-1741-80B3-DA4776DCB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="520" windowWidth="26480" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
+    <workbookView xWindow="6760" yWindow="2800" windowWidth="24080" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
   </bookViews>
   <sheets>
     <sheet name="IS source" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>Ticker</t>
   </si>
@@ -496,17 +496,27 @@
   </si>
   <si>
     <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Gross Profit %</t>
+  </si>
+  <si>
+    <t>Other Operating Revenue</t>
+  </si>
+  <si>
+    <t>CAGR                   19-23%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="#,###;\(#,###\);\-"/>
+    <numFmt numFmtId="165" formatCode="#,###;\(#,###\);\-"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,8 +557,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,8 +612,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -611,12 +656,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -627,22 +682,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DB18C71D-3F96-4C76-AAE8-D1ACF701B155}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD42F68-042B-4357-ABDB-631263EB20BD}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -977,20 +1050,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -999,10 +1072,10 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1011,19 +1084,19 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1032,7 +1105,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1062,7 +1135,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1149,7 +1222,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1829,7 +1902,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1861,7 +1934,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2093,7 +2166,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2125,7 +2198,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3679,314 +3752,413 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A95765-7F90-D743-A132-631D0555C81E}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0.33203125" style="7" customWidth="1"/>
+    <col min="4" max="8" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="C1" s="10"/>
+    </row>
+    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="I4" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>10003.700000000001</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>10853.04</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>12462.05</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>12259.54</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>12087.66</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="I5" s="24">
+        <f>(H5/D5)^(1/4)-1</f>
+        <v>4.8444375275666696E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>2657.8</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>3169.28</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>3890.39</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>4337.26</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>4577.37</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="I6" s="24">
+        <f t="shared" ref="I6:I10" si="0">(H6/D6)^(1/4)-1</f>
+        <v>0.14557474425748995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>1789.06</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>1883.79</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>2197.2199999999998</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>2540.89</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="19">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>2584.9</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>9.6363857345664661E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="30">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>25.1</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="30">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="30">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="30">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="30">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="17">
-        <f>SUM(D5:D7)</f>
-        <v>14450.56</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="19">
+        <f>SUM(D5:D8)</f>
+        <v>14475.66</v>
+      </c>
+      <c r="E9" s="19">
         <f>SUM(E5:E7)</f>
         <v>15906.11</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <f>SUM(F5:F7)</f>
         <v>18549.66</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <f>SUM(G5:G7)</f>
         <v>19137.690000000002</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="19">
         <f>SUM(H5:H7)</f>
         <v>19249.93</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="24">
+        <f>(H9/D9)^(1/4)-1</f>
+        <v>7.3860072753893835E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>-7882.7606999999998</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>-8291.3433999999997</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="14">
         <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>-9737.1097000000009</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="14">
         <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>-9663.3541999999998</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C10,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>-9696.6934999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <f>SUM(D9:D10)</f>
-        <v>6567.7992999999997</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" ref="E11:H11" si="0">SUM(E9:E10)</f>
+        <v>6592.8993</v>
+      </c>
+      <c r="E11" s="13">
+        <f>SUM(E9:E10)</f>
         <v>7614.7666000000008</v>
       </c>
-      <c r="F11" s="17">
-        <f t="shared" si="0"/>
+      <c r="F11" s="13">
+        <f>SUM(F9:F10)</f>
         <v>8812.550299999999</v>
       </c>
-      <c r="G11" s="17">
-        <f t="shared" si="0"/>
+      <c r="G11" s="13">
+        <f>SUM(G9:G10)</f>
         <v>9474.3358000000026</v>
       </c>
-      <c r="H11" s="17">
-        <f t="shared" si="0"/>
+      <c r="H11" s="13">
+        <f>SUM(H9:H10)</f>
         <v>9553.2365000000009</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="I11" s="24">
+        <f>(H11/D11)^(1/4)-1</f>
+        <v>9.7156351793897588E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34">
+        <f>D11/D9</f>
+        <v>0.45544723349401683</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" ref="E12:H12" si="1">E11/E9</f>
+        <v>0.47873217273110774</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="1"/>
+        <v>0.47507880467889974</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" si="1"/>
+        <v>0.49506161924453795</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="1"/>
+        <v>0.49627383060613733</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="18">
-        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+      <c r="D13" s="14">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C13,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>-6121.5848999999998</v>
       </c>
-      <c r="E12" s="18">
-        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+      <c r="E13" s="14">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C13,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>-6694.0990000000002</v>
       </c>
-      <c r="F12" s="18">
-        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+      <c r="F13" s="14">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C13,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>-7751.5357999999997</v>
       </c>
-      <c r="G12" s="18">
-        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+      <c r="G13" s="14">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C13,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>-8248.8911000000007</v>
       </c>
-      <c r="H12" s="18">
-        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C12,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+      <c r="H13" s="14">
+        <f>-INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C13,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>-8215.6232</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="14">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C14,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
+        <v>259.36559999999997</v>
+      </c>
+      <c r="E14" s="14">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C14,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
+        <v>278.58909999999997</v>
+      </c>
+      <c r="F14" s="14">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C14,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
+        <v>265.94990000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C14,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
+        <v>298.32310000000001</v>
+      </c>
+      <c r="H14" s="14">
+        <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C14,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
+        <v>328.09359999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="19">
-        <f>SUM(D11:D12)</f>
-        <v>446.21439999999984</v>
-      </c>
-      <c r="E13" s="19">
-        <f t="shared" ref="E13:H13" si="1">SUM(E11:E12)</f>
-        <v>920.66760000000068</v>
-      </c>
-      <c r="F13" s="19">
-        <f t="shared" si="1"/>
-        <v>1061.0144999999993</v>
-      </c>
-      <c r="G13" s="19">
-        <f t="shared" si="1"/>
-        <v>1225.4447000000018</v>
-      </c>
-      <c r="H13" s="19">
-        <f t="shared" si="1"/>
-        <v>1337.6133000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="D15" s="22">
+        <f>D11+D13+D14</f>
+        <v>730.68000000000018</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" ref="E15:H15" si="2">E11+E13+E14</f>
+        <v>1199.2567000000006</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="2"/>
+        <v>1326.9643999999994</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
+        <v>1523.7678000000019</v>
+      </c>
+      <c r="H15" s="22">
+        <f t="shared" si="2"/>
+        <v>1665.7069000000008</v>
+      </c>
+      <c r="I15" s="25">
+        <f>(H15/D15)^(1/4)-1</f>
+        <v>0.22876219526653641</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="7">
-        <f>D13/D9</f>
-        <v>3.0878692590460152E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="20" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36">
+        <f>D15/D9</f>
+        <v>5.0476454959566625E-2</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" ref="E16:H16" si="3">E15/E9</f>
+        <v>7.5395976766160958E-2</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="3"/>
+        <v>7.153578017063382E-2</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="3"/>
+        <v>7.9621302257482582E-2</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="3"/>
+        <v>8.6530543227949439E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bloomberg data_Source 2.xlsx
+++ b/Bloomberg data_Source 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snoorsalihi/Desktop/DataScience/Bloomberg-P-L-Analysis-and-Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5370DFA-CBAB-1741-80B3-DA4776DCB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE3073-1C2C-8C45-B671-3F2A5B1B84D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="2800" windowWidth="24080" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="24080" windowHeight="15500" activeTab="1" xr2:uid="{790DDEEE-302A-4D12-A3D1-DF5E484623AD}"/>
   </bookViews>
   <sheets>
     <sheet name="IS source" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,30 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IS source'!$A$9:$J$80</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'P&amp;L Statement'!$D$15:$H$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'P&amp;L Statement'!$D$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'P&amp;L Statement'!$D$7:$H$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'P&amp;L Statement'!$D$8:$H$8</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'P&amp;L Statement'!$D$15:$H$15</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'P&amp;L Statement'!$D$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'P&amp;L Statement'!$D$5:$H$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'P&amp;L Statement'!$D$6:$H$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'P&amp;L Statement'!$D$7:$H$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'P&amp;L Statement'!$D$8:$H$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'P&amp;L Statement'!$D$15:$H$15</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'P&amp;L Statement'!$D$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'P&amp;L Statement'!$D$5:$H$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'P&amp;L Statement'!$D$5:$H$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'P&amp;L Statement'!$D$6:$H$6</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'P&amp;L Statement'!$D$7:$H$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'P&amp;L Statement'!$D$8:$H$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'P&amp;L Statement'!$D$6:$H$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'P&amp;L Statement'!$D$7:$H$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'P&amp;L Statement'!$D$8:$H$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'P&amp;L Statement'!$D$15:$H$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'P&amp;L Statement'!$D$4:$H$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'P&amp;L Statement'!$D$5:$H$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'P&amp;L Statement'!$D$6:$H$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -514,7 +538,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,###;\(#,###\);\-"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -671,7 +695,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -688,29 +712,25 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,6 +748,1585 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Adidas Revenue: FY2019-FY2023</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wholesale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L Statement'!$D$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L Statement'!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,###;\(#,###\);\-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10003.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10853.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12462.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12259.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12087.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD03-1444-AF70-F25261A3A0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Retail</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L Statement'!$D$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L Statement'!$D$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,###;\(#,###\);\-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2657.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3169.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3890.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4337.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4577.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD03-1444-AF70-F25261A3A0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Other Businesses</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L Statement'!$D$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L Statement'!$D$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,###;\(#,###\);\-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1789.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1883.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2197.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2540.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2584.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD03-1444-AF70-F25261A3A0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Adjustment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L Statement'!$D$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L Statement'!$D$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,###;\(#,###\);\-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD03-1444-AF70-F25261A3A0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="2077348735"/>
+        <c:axId val="2085886223"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EBIT%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L Statement'!$D$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FY 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FY 2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L Statement'!$D$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0476454959566625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5395976766160958E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.153578017063382E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9621302257482582E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6530543227949439E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD03-1444-AF70-F25261A3A0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="74307488"/>
+        <c:axId val="34789904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077348735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085886223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2085886223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>$ in million</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,###;\(#,###\);\-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077348735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="34789904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1"/>
+                  <a:t>EBIT%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74307488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="74307488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34789904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A157490-4C83-A8A9-7634-D798FA4C49B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,20 +2649,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1072,10 +2671,10 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1084,19 +2683,19 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -3755,7 +5354,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3768,188 +5367,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>144</v>
       </c>
       <c r="C1" s="10"/>
     </row>
     <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>10003.700000000001</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>10853.04</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>12462.05</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>12259.54</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C5,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>12087.66</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <f>(H5/D5)^(1/4)-1</f>
         <v>4.8444375275666696E-2</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>2657.8</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>3169.28</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>3890.39</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>4337.26</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C6,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>4577.37</v>
       </c>
-      <c r="I6" s="24">
-        <f t="shared" ref="I6:I10" si="0">(H6/D6)^(1/4)-1</f>
+      <c r="I6" s="21">
+        <f t="shared" ref="I6:I7" si="0">(H6/D6)^(1/4)-1</f>
         <v>0.14557474425748995</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>1789.06</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>1883.79</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>2197.2199999999998</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>2540.89</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C7,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>2584.9</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <f t="shared" si="0"/>
         <v>9.6363857345664661E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!D$4,'IS source'!$9:$9,0))</f>
         <v>25.1</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!E$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!F$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="25">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!G$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="25">
         <f>INDEX('IS source'!$1:$1048576,MATCH('P&amp;L Statement'!$C8,'IS source'!$A:$A,0),MATCH('P&amp;L Statement'!H$4,'IS source'!$9:$9,0))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <f>SUM(D5:D8)</f>
         <v>14475.66</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="14">
         <f>SUM(E5:E7)</f>
         <v>15906.11</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="14">
         <f>SUM(F5:F7)</f>
         <v>18549.66</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="14">
         <f>SUM(G5:G7)</f>
         <v>19137.690000000002</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="14">
         <f>SUM(H5:H7)</f>
         <v>19249.93</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="21">
         <f>(H9/D9)^(1/4)-1</f>
         <v>7.3860072753893835E-2</v>
       </c>
@@ -4009,33 +5608,33 @@
         <f>SUM(H9:H10)</f>
         <v>9553.2365000000009</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="21">
         <f>(H11/D11)^(1/4)-1</f>
         <v>9.7156351793897588E-2</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29">
         <f>D11/D9</f>
         <v>0.45544723349401683</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="29">
         <f t="shared" ref="E12:H12" si="1">E11/E9</f>
         <v>0.47873217273110774</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <f t="shared" si="1"/>
         <v>0.47507880467889974</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="29">
         <f t="shared" si="1"/>
         <v>0.49506161924453795</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="29">
         <f t="shared" si="1"/>
         <v>0.49627383060613733</v>
       </c>
@@ -4100,56 +5699,56 @@
       <c r="B15" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <f>D11+D13+D14</f>
         <v>730.68000000000018</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <f t="shared" ref="E15:H15" si="2">E11+E13+E14</f>
         <v>1199.2567000000006</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="19">
         <f t="shared" si="2"/>
         <v>1326.9643999999994</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="19">
         <f t="shared" si="2"/>
         <v>1523.7678000000019</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <f t="shared" si="2"/>
         <v>1665.7069000000008</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="22">
         <f>(H15/D15)^(1/4)-1</f>
         <v>0.22876219526653641</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36">
+      <c r="C16" s="27"/>
+      <c r="D16" s="30">
         <f>D15/D9</f>
         <v>5.0476454959566625E-2</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="30">
         <f t="shared" ref="E16:H16" si="3">E15/E9</f>
         <v>7.5395976766160958E-2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="30">
         <f t="shared" si="3"/>
         <v>7.153578017063382E-2</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="30">
         <f t="shared" si="3"/>
         <v>7.9621302257482582E-2</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="30">
         <f t="shared" si="3"/>
         <v>8.6530543227949439E-2</v>
       </c>
@@ -4162,5 +5761,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>